--- a/biology/Botanique/Clusia/Clusia.xlsx
+++ b/biology/Botanique/Clusia/Clusia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clusia L., 1753 est un genre de plantes à fleurs dicotylédones de la famille des Clusiaceae.
 L'espèce type est Clusia major L..
 Il comprend de 140 à 150 espèces et est originaire d'Amérique tropicale et subtropicale.
 Ses espèces sont des arbustes, des plantes grimpantes de petite à moyenne taille ou des arbres jusqu'à 20 m de haut, au feuillage persistant. Certaines commencent leur vie comme espèce épiphyte, naissant dans la crevasse d'un vieil arbre puis développant de longues racines qui descendent vers le sol et finissent par étouffer et tuer l'arbre hôte, d'une manière similaire aux figuiers étrangleurs.
 Les feuilles sont subsessiles, cunéiformes à obovales, opposées, de 5 à 20 cm de long et 5 à 10 cm de large, avec une texture de cuir et une marge entière. Les fleurs sont de couleur blanche à blanc verdâtre, jaune ou rose, avec 4 à 9 pétales, nombreuses étamines en nombre variable, style nul. Le fruit est une grosse capsule, globuleuse, brun verdâtre, valvulaire, coriace, qui s'ouvre pour libérer 7 à 9 graines rouges, charnues.
-Le genre a été nommé en l'honneur du botaniste Charles de L'Écluse (Carolus Clusius)[1].
+Le genre a été nommé en l'honneur du botaniste Charles de L'Écluse (Carolus Clusius).
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (10 Aug 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (10 Aug 2010) :
 Clusia alba - Clusia à fleurs blanches
 Clusia arborea
 Clusia carinata
@@ -576,10 +590,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (04 février 2022)[3] :
-Selon GBIF       (04 février 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (04 février 2022) :
+Selon GBIF       (04 février 2022) :
 </t>
         </is>
       </c>
